--- a/src/Resources/fixtures/minimal_FR/init.xlsx
+++ b/src/Resources/fixtures/minimal_FR/init.xlsx
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="271">
   <si>
     <t>HOWTO Utilisateur final</t>
   </si>
@@ -221,92 +221,16 @@
     <t>Règles globales</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Ne pas modifier </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>les lignes de headers</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Ne pas ouvrir ce fichier avec OpenOffice</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>, les règles de validation seraient supprimées</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Ne pas </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>enregistrer ce fichier avec une extension autre que xlsx</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Ne pas modifier </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>les lignes masquées</t>
-    </r>
+    <t>Ne pas modifier les lignes de headers</t>
+  </si>
+  <si>
+    <t>Ne pas ouvrir ce fichier avec OpenOffice, les règles de validation seraient supprimées</t>
+  </si>
+  <si>
+    <t>Ne pas enregistrer ce fichier avec une extension autre que xlsx</t>
+  </si>
+  <si>
+    <t>Ne pas modifier les lignes masquées</t>
   </si>
   <si>
     <t>attributes</t>
@@ -315,28 +239,7 @@
     <t>L'onglet attributes peut être utilisé pour les informations relatives aux attributs communs à plusieurs familles, ou non affectés à des familles.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Cet onglet peut être dupliqué pour séparer la liste en plusieurs parties. </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Le titre de l'onglet devra commencer par "attributes"</t>
-    </r>
+    <t>Cet onglet peut être dupliqué pour séparer la liste en plusieurs parties. Le titre de l'onglet devra commencer par "attributes"</t>
   </si>
   <si>
     <t>family</t>
@@ -345,52 +248,10 @@
     <t>Les onglets "family" contiennent les informations relatives à une famille : code, labels, attributs et règles de complétion.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Pour créer une nouvelle famille, dupliquer l'onglet existant. </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Le titre de l'onglet devra commencer par "family"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Si un attribut est présent dans plusieurs familles, ou est défini dans un onglet attributes, </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>les colonnes roses et bleues (propriétés et labels de l'attribut) ne devront pas être remplies qu'une fois</t>
-    </r>
+    <t>Pour créer une nouvelle famille, dupliquer l'onglet existant. Le titre de l'onglet devra commencer par "family"</t>
+  </si>
+  <si>
+    <t>Si un attribut est présent dans plusieurs familles, ou est défini dans un onglet attributes, les colonnes roses et bleues (propriétés et labels de l'attribut) ne devront pas être remplies qu'une fois</t>
   </si>
   <si>
     <t>Pour donner des règles de complétion pour de nouveaux canaux de diffusion, ajouter des colonnes sur la droite de l'onglet, en donnant comme titre de colonne le code du canal.</t>
@@ -402,34 +263,16 @@
     <t>Cet onglet contient les informations relatives aux groupes d'attributs</t>
   </si>
   <si>
+    <t>Le groupe “other” est requis, merci de ne pas le supprimer</t>
+  </si>
+  <si>
     <t>options</t>
   </si>
   <si>
     <t>Cet onglet contient les options pour les attributs de type select</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Cet onglet peut être dupliqué afin d'avoir un onglet par attribut. </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Pour être importés, les titres des onglets devront commencer par "options"</t>
-    </r>
+    <t>Cet onglet peut être dupliqué afin d'avoir un onglet par attribut. Pour être importés, les titres des onglets devront commencer par "options"</t>
   </si>
   <si>
     <t>channels</t>
@@ -447,28 +290,7 @@
     <t>Cet onglet contient les informations relatives aux catégories</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Cet onglet peut être dupliqué afin d'avoir un onglet par arbre. </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Pour être importés, les titres des onglets devront commencer par "categories"</t>
-    </r>
+    <t>Cet onglet peut être dupliqué afin d'avoir un onglet par arbre. Pour être importés, les titres des onglets devront commencer par "categories"</t>
   </si>
   <si>
     <t>association_types</t>
@@ -1214,7 +1036,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="D\-MMM"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1274,13 +1096,6 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1364,11 +1179,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1553,15 +1368,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>874440</xdr:colOff>
+      <xdr:colOff>901080</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1570,8 +1385,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="8705520" cy="9532080"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="8590680" cy="9531720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1598,15 +1413,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>874440</xdr:colOff>
+      <xdr:colOff>901080</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1615,8 +1430,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="8705520" cy="9532080"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="8590680" cy="9531720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1648,15 +1463,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>26640</xdr:colOff>
+      <xdr:colOff>53280</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>142920</xdr:rowOff>
+      <xdr:rowOff>142560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1665,8 +1480,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="6571800" cy="9537480"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="6476040" cy="9537120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1693,15 +1508,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>26640</xdr:colOff>
+      <xdr:colOff>53280</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>142920</xdr:rowOff>
+      <xdr:rowOff>142560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1710,8 +1525,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="6571800" cy="9537480"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="6476040" cy="9537120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1743,15 +1558,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>874440</xdr:colOff>
+      <xdr:colOff>901080</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1760,8 +1575,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10686600" cy="9370080"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="10543320" cy="9369720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1788,15 +1603,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>874440</xdr:colOff>
+      <xdr:colOff>901080</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1805,8 +1620,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="10686600" cy="9370080"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="10543320" cy="9369720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1838,16 +1653,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K40" activeCellId="0" sqref="K40"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.39795918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.26530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1884,7 +1699,7 @@
       <c r="B9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1892,7 +1707,7 @@
       <c r="B11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1912,12 +1727,12 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1936,13 +1751,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="2" t="s">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1951,28 +1766,28 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="2" t="s">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="2" t="s">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1981,39 +1796,44 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="2" t="s">
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="2" t="s">
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5" t="s">
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
+    <row r="51" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2040,7 +1860,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2048,10 +1868,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2059,18 +1879,18 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2097,121 +1917,120 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2238,121 +2057,120 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2379,719 +2197,718 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B1" s="17"/>
     </row>
     <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -3118,38 +2935,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="11.7448979591837"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="6" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="29.2908163265306"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="34.1530612244898"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="7" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="8" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="48" min="47" style="7" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="11.4744897959184"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="6" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="44" min="26" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="7" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="8" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="48" min="47" style="7" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="49" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>32</v>
+      <c r="A1" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -3180,10 +3000,10 @@
     <row r="4" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -3210,170 +3030,170 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T5" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U5" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V5" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W5" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X5" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y5" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="25.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U6" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V6" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W6" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X6" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y6" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="A7" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>88</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>1</v>
@@ -3427,16 +3247,16 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="E8" s="6" t="n">
         <v>2</v>
@@ -3541,50 +3361,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="23.219387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="29.2908163265306"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="34.1530612244898"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="6" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="36" min="28" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="42" min="40" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="46" min="44" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="7" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="8" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="7" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="7" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="1021" min="51" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="6" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="36" min="28" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="42" min="40" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="46" min="44" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="7" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="8" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="7" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="7" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1021" min="51" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.77551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
-        <v>36</v>
+      <c r="E1" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="F1" s="0"/>
       <c r="G1" s="0"/>
@@ -3598,17 +3419,17 @@
       <c r="AX1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>95</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
@@ -3625,10 +3446,10 @@
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -3653,179 +3474,179 @@
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
       <c r="AA3" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S4" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T4" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U4" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V4" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W4" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X4" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y4" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z4" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA4" s="22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U5" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W5" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X5" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y5" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z5" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA5" s="23"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="A6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
       <c r="I6" s="20"/>
@@ -3870,13 +3691,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="AA7" s="6" t="n">
         <v>1</v>
       </c>
@@ -3971,63 +3792,63 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="16.6020408163265"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" s="20" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4057,40 +3878,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="16.6020408163265"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4121,18 +3942,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="20" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="20" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="1016" min="6" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="1017" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="20" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="20" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="1016" min="6" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="1017" style="0" width="8.77551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -4141,53 +3962,53 @@
     </row>
     <row r="2" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4225,48 +4046,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="16.6020408163265"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -4303,35 +4124,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="25"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
@@ -4339,7 +4161,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -4378,64 +4200,65 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="40.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="28" width="49.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="28" width="49"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="29" customFormat="true" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/src/Resources/fixtures/minimal_FR/init.xlsx
+++ b/src/Resources/fixtures/minimal_FR/init.xlsx
@@ -1,41 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewhill/src/ExcelInitBundle/src/Resources/fixtures/minimal_FR/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20420" windowHeight="10040" tabRatio="993" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="attributes" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="family main" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="attribute_groups" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="options" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="channels" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="categories" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="group_types" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="association_types" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="choices" sheetId="10" state="hidden" r:id="rId11"/>
-    <sheet name="attribute_types" sheetId="11" state="hidden" r:id="rId12"/>
-    <sheet name="metric_types" sheetId="12" state="hidden" r:id="rId13"/>
-    <sheet name="metric_units" sheetId="13" state="hidden" r:id="rId14"/>
+    <sheet name="README" sheetId="1" r:id="rId1"/>
+    <sheet name="attributes" sheetId="2" r:id="rId2"/>
+    <sheet name="family main" sheetId="3" r:id="rId3"/>
+    <sheet name="attribute_groups" sheetId="4" r:id="rId4"/>
+    <sheet name="options" sheetId="5" r:id="rId5"/>
+    <sheet name="channels" sheetId="6" r:id="rId6"/>
+    <sheet name="categories" sheetId="7" r:id="rId7"/>
+    <sheet name="group_types" sheetId="8" r:id="rId8"/>
+    <sheet name="association_types" sheetId="9" r:id="rId9"/>
+    <sheet name="choices" sheetId="10" state="hidden" r:id="rId10"/>
+    <sheet name="attribute_types" sheetId="11" state="hidden" r:id="rId11"/>
+    <sheet name="metric_types" sheetId="12" state="hidden" r:id="rId12"/>
+    <sheet name="metric_units" sheetId="13" state="hidden" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="attribute_groups" vbProcedure="false">attribute_groups!$A$4:$A$100</definedName>
-    <definedName function="false" hidden="false" name="attribute_types" vbProcedure="false">attribute_types!$B$3:$B$14</definedName>
-    <definedName function="false" hidden="false" name="boolean_choices" vbProcedure="false">choices!$A$1:$A$2</definedName>
-    <definedName function="false" hidden="false" name="date_choices" vbProcedure="false">choices!$C$1:$C$3</definedName>
-    <definedName function="false" hidden="false" name="metric_types" vbProcedure="false">metric_types!$B$3:$B$11</definedName>
-    <definedName function="false" hidden="false" name="metric_units" vbProcedure="false">metric_units!$B$3:$B$89</definedName>
-    <definedName function="false" hidden="false" name="validation_choices" vbProcedure="false">choices!$B$1:$B$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">attributes!$B$6:$AU$9</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'family main'!$C$5:$AW$8</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">attribute_groups!$A$4:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3">attribute_groups!$A$4:$C$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">attributes!$B$6:$AU$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2">'family main'!$C$5:$AW$8</definedName>
+    <definedName name="attribute_groups">attribute_groups!$A$4:$A$100</definedName>
+    <definedName name="attribute_types">attribute_types!$B$3:$B$14</definedName>
+    <definedName name="boolean_choices">choices!$A$1:$A$2</definedName>
+    <definedName name="date_choices">choices!$C$1:$C$3</definedName>
+    <definedName name="metric_types">metric_types!$B$3:$B$11</definedName>
+    <definedName name="metric_units">metric_units!$B$3:$B$89</definedName>
+    <definedName name="validation_choices">choices!$B$1:$B$3</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -43,8 +53,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
@@ -60,8 +70,7 @@
             <charset val="1"/>
           </rPr>
           <t>Spécifier le nom des locales, séparées par ","
-Par exemple : "en_US, fr_FR"
-</t>
+Par exemple : "en_US, fr_FR"</t>
         </r>
       </text>
     </comment>
@@ -100,12 +109,26 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
+    <comment ref="AA3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Insérer 1 si l'attribut est requis pour cette famille et ce canal</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I4" authorId="0">
       <text>
         <r>
@@ -117,8 +140,7 @@
             <charset val="1"/>
           </rPr>
           <t>Spécifier le nom des locales, séparées par ","
-Par exemple : "en_US, fr_FR"
-</t>
+Par exemple : "en_US, fr_FR"</t>
         </r>
       </text>
     </comment>
@@ -153,26 +175,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Insérer 1 si l'attribut est requis pour cette famille et ce canal</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
@@ -605,9 +613,6 @@
     <t>Type variant</t>
   </si>
   <si>
-    <t>variant</t>
-  </si>
-  <si>
     <t>VARIANT</t>
   </si>
   <si>
@@ -1026,17 +1031,19 @@
   </si>
   <si>
     <t>TON</t>
+  </si>
+  <si>
+    <t>is_variant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="D\-MMM"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d\-mmm"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1045,22 +1052,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1068,7 +1060,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1076,7 +1068,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1084,7 +1076,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1092,7 +1084,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
@@ -1133,7 +1125,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1141,165 +1133,96 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="31">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1358,13 +1281,393 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2056" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2054" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2052" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2050" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1378,9 +1681,9 @@
       <xdr:row>59</xdr:row>
       <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1392,7 +1695,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1402,9 +1705,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1423,9 +1732,9 @@
       <xdr:row>59</xdr:row>
       <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1437,7 +1746,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1447,9 +1756,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1458,8 +1773,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1473,7 +1788,7 @@
       <xdr:row>59</xdr:row>
       <xdr:rowOff>142560</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1487,7 +1802,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1497,9 +1812,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1518,7 +1839,7 @@
       <xdr:row>59</xdr:row>
       <xdr:rowOff>142560</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1532,7 +1853,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1542,19 +1863,127 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4100" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4098" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1568,7 +1997,7 @@
       <xdr:row>58</xdr:row>
       <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1582,7 +2011,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1592,9 +2021,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1613,7 +2048,7 @@
       <xdr:row>58</xdr:row>
       <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
@@ -1627,7 +2062,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln w="9360">
           <a:solidFill>
@@ -1637,9 +2072,15 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1648,396 +2089,626 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.26530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.3928571428571"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="4" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="3" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="4" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="2" t="s">
+    <row r="22" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="2" t="s">
+    <row r="27" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="4" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B30" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="2" t="s">
+    <row r="32" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="4" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="2" t="s">
+    <row r="37" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B37" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="4" t="s">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B40" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="2" t="s">
+    <row r="42" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B42" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="2" t="s">
+    <row r="46" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B46" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="s">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.3928571428571"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="0" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="0" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="C3" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>147</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:2" s="5" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="17" t="s">
+    </row>
+    <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B5" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="0" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="B6" t="s">
         <v>154</v>
       </c>
-      <c r="B6" s="0" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="B7" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="0" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="B8" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="0" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="B9" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="0" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="B10" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="0" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="B11" t="s">
         <v>164</v>
       </c>
-      <c r="B11" s="0" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="B12" t="s">
         <v>166</v>
       </c>
-      <c r="B12" s="0" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="B13" t="s">
         <v>168</v>
       </c>
-      <c r="B13" s="0" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="B14" t="s">
         <v>170</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>171</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2045,139 +2716,131 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:2" s="5" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+    </row>
+    <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>176</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>177</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>178</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B10" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>179</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B11" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>180</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B12" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B13" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>182</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B14" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2185,737 +2848,729 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="17"/>
-    </row>
-    <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+    <row r="1" spans="1:2" s="5" customFormat="1" ht="26" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="18"/>
+    </row>
+    <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="B23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="B24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>172</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="B25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>172</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="B26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>173</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="B27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>173</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="B28" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>173</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="B29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>173</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="B30" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>173</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="B31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>174</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="B32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>174</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="B33" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
         <v>174</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="B34" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>174</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="B35" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>174</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="B36" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B37" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>174</v>
+      </c>
+      <c r="B41" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>174</v>
+      </c>
+      <c r="B43" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>174</v>
+      </c>
+      <c r="B44" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>174</v>
+      </c>
+      <c r="B45" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>175</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="B46" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
         <v>175</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="B47" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
         <v>175</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="B48" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
         <v>175</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="B49" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
         <v>175</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="B50" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
         <v>176</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="B51" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
         <v>176</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="B52" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
         <v>176</v>
       </c>
-      <c r="B48" s="0" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="B53" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
         <v>176</v>
       </c>
-      <c r="B49" s="0" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="B54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
         <v>176</v>
       </c>
-      <c r="B50" s="0" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="B55" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>176</v>
+      </c>
+      <c r="B56" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B57" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
         <v>177</v>
       </c>
-      <c r="B51" s="0" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="B59" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
         <v>177</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="B60" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
         <v>177</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="B61" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
         <v>177</v>
       </c>
-      <c r="B54" s="0" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="B62" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
         <v>177</v>
       </c>
-      <c r="B55" s="0" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="B63" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
         <v>178</v>
       </c>
-      <c r="B59" s="0" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="B64" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
         <v>178</v>
       </c>
-      <c r="B60" s="0" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="B65" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
         <v>178</v>
       </c>
-      <c r="B61" s="0" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="B66" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
         <v>178</v>
       </c>
-      <c r="B62" s="0" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="B67" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
         <v>178</v>
       </c>
-      <c r="B63" s="0" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="B68" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>178</v>
+      </c>
+      <c r="B69" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>178</v>
+      </c>
+      <c r="B70" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>178</v>
+      </c>
+      <c r="B71" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>178</v>
+      </c>
+      <c r="B72" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>178</v>
+      </c>
+      <c r="B73" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>178</v>
+      </c>
+      <c r="B74" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>178</v>
+      </c>
+      <c r="B75" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>178</v>
+      </c>
+      <c r="B76" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>178</v>
+      </c>
+      <c r="B77" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>178</v>
+      </c>
+      <c r="B78" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
         <v>179</v>
       </c>
-      <c r="B64" s="0" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="B79" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
         <v>179</v>
       </c>
-      <c r="B65" s="0" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="B80" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
         <v>179</v>
       </c>
-      <c r="B66" s="0" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="B81" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
         <v>179</v>
       </c>
-      <c r="B67" s="0" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="B82" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
         <v>179</v>
       </c>
-      <c r="B68" s="0" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="B83" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
         <v>179</v>
       </c>
-      <c r="B69" s="0" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="B84" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
         <v>179</v>
       </c>
-      <c r="B70" s="0" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="B85" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
         <v>179</v>
       </c>
-      <c r="B71" s="0" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="B86" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
         <v>179</v>
       </c>
-      <c r="B72" s="0" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="B87" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
         <v>179</v>
       </c>
-      <c r="B73" s="0" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="B88" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
         <v>179</v>
       </c>
-      <c r="B74" s="0" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="B88" s="0" t="s">
+      <c r="B89" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>270</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2923,782 +3578,712 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="11.4744897959184"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="6" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="33.75"/>
-    <col collapsed="false" hidden="false" max="44" min="26" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="7" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="8" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="48" min="47" style="7" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="49" style="0" width="8.50510204081633"/>
+    <col min="5" max="7" width="8.83203125" style="8"/>
+    <col min="9" max="10" width="8.83203125" style="8"/>
+    <col min="45" max="45" width="8.83203125" style="9"/>
+    <col min="46" max="46" width="8.83203125" style="10"/>
+    <col min="47" max="48" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-      <c r="I1" s="0"/>
-      <c r="J1" s="0"/>
-      <c r="AS1" s="0"/>
-      <c r="AT1" s="0"/>
-      <c r="AU1" s="0"/>
-      <c r="AV1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-      <c r="I2" s="0"/>
-      <c r="J2" s="0"/>
-      <c r="AS2" s="0"/>
-      <c r="AT2" s="0"/>
-      <c r="AU2" s="0"/>
-      <c r="AV2" s="0"/>
-    </row>
-    <row r="4" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="AS1"/>
+      <c r="AT1"/>
+      <c r="AU1"/>
+      <c r="AV1"/>
+    </row>
+    <row r="2" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="AS2"/>
+      <c r="AT2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+    </row>
+    <row r="4" spans="1:48" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+    </row>
+    <row r="5" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="R5" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="S5" s="14" t="s">
+      <c r="S5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="T5" s="14" t="s">
+      <c r="T5" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="U5" s="14" t="s">
+      <c r="U5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="V5" s="14" t="s">
+      <c r="V5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W5" s="14" t="s">
+      <c r="W5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="X5" s="14" t="s">
+      <c r="X5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="Y5" s="14" t="s">
+      <c r="Y5" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="25.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:48" ht="39" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="O6" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="P6" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="Q6" s="17" t="s">
+      <c r="Q6" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="R6" s="17" t="s">
+      <c r="R6" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="S6" s="17" t="s">
+      <c r="S6" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="T6" s="17" t="s">
+      <c r="T6" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="U6" s="17" t="s">
+      <c r="U6" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="V6" s="17" t="s">
+      <c r="V6" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="W6" s="17" t="s">
+      <c r="W6" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="X6" s="17" t="s">
+      <c r="X6" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="Y6" s="17" t="s">
+      <c r="Y6" s="18" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="8">
         <v>1</v>
       </c>
-      <c r="F7" s="19" t="n">
+      <c r="F7" s="20">
         <v>1</v>
       </c>
-      <c r="G7" s="19" t="n">
+      <c r="G7" s="20">
         <v>0</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="19" t="n">
+      <c r="H7" s="21"/>
+      <c r="I7" s="20">
         <v>0</v>
       </c>
-      <c r="J7" s="19" t="n">
+      <c r="J7" s="20">
         <v>1</v>
       </c>
-      <c r="K7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="20"/>
-      <c r="AL7" s="20"/>
-      <c r="AM7" s="20"/>
-      <c r="AN7" s="20"/>
-      <c r="AO7" s="20"/>
-      <c r="AP7" s="20"/>
-      <c r="AQ7" s="20"/>
-      <c r="AR7" s="20"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="K7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="21"/>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="21"/>
+      <c r="AO7" s="21"/>
+      <c r="AP7" s="21"/>
+      <c r="AQ7" s="21"/>
+      <c r="AR7" s="21"/>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="8">
         <v>2</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="8">
         <v>0</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="8">
         <v>0</v>
       </c>
-      <c r="I8" s="6" t="n">
+      <c r="I8" s="8">
         <v>0</v>
       </c>
-      <c r="J8" s="6" t="n">
+      <c r="J8" s="8">
         <v>1</v>
       </c>
-      <c r="S8" s="21"/>
+      <c r="S8" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C4:Y4"/>
   </mergeCells>
   <dataValidations count="14">
-    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="X7:X8" type="none">
+    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X7:X8">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O7:P8" type="whole">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showErrorMessage="1" sqref="O7:P8">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B7:B8" type="textLength">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B8">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:W8 Y7:Y8" type="whole">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="W7:W8 Y7:Y8">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L7:L8" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="L7:L8">
       <formula1>validation_choices</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K7:K8" type="whole">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K8">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F7:G8 I7:J8 N7:N8 Q7:R8" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:G8 I7:J8 N7:N8 Q7:R8">
       <formula1>boolean_choices</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M7" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E7" type="whole">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="E7">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="S7" type="decimal">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S7">
       <formula1>$O$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D7:D8" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="D7:D8">
       <formula1>attribute_groups</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C7:C8" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="C7:C8">
       <formula1>attribute_types</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="U7:U8" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U7:U8">
       <formula1>metric_types</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V7:V8" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V7:V8">
       <formula1>metric_units</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="33.75"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="6" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="36" min="28" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="42" min="40" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="46" min="44" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="7" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="8" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="7" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="7" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1021" min="51" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.77551020408163"/>
+    <col min="6" max="8" width="8.83203125" style="8"/>
+    <col min="10" max="11" width="8.83203125" style="8"/>
+    <col min="27" max="27" width="8.83203125" style="8"/>
+    <col min="47" max="47" width="8.83203125" style="9"/>
+    <col min="48" max="48" width="8.83203125" style="10"/>
+    <col min="49" max="50" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+    <row r="1" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="5"/>
+      <c r="E1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-      <c r="H1" s="0"/>
-      <c r="J1" s="0"/>
-      <c r="K1" s="0"/>
-      <c r="AA1" s="0"/>
-      <c r="AU1" s="0"/>
-      <c r="AV1" s="0"/>
-      <c r="AW1" s="0"/>
-      <c r="AX1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="AA1"/>
+      <c r="AU1"/>
+      <c r="AV1"/>
+      <c r="AW1"/>
+      <c r="AX1"/>
+    </row>
+    <row r="2" spans="1:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-      <c r="J2" s="0"/>
-      <c r="K2" s="0"/>
-      <c r="AA2" s="0"/>
-      <c r="AU2" s="0"/>
-      <c r="AV2" s="0"/>
-      <c r="AW2" s="0"/>
-      <c r="AX2" s="0"/>
-    </row>
-    <row r="3" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="AA2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+      <c r="AW2"/>
+      <c r="AX2"/>
+    </row>
+    <row r="3" spans="1:50" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="22" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="P4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="Q4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="R4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="S4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="T4" s="14" t="s">
+      <c r="T4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="14" t="s">
+      <c r="U4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="V4" s="14" t="s">
+      <c r="V4" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="W4" s="14" t="s">
+      <c r="W4" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="X4" s="14" t="s">
+      <c r="X4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y4" s="14" t="s">
+      <c r="Y4" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="Z4" s="14" t="s">
+      <c r="Z4" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AA4" s="22" t="s">
+      <c r="AA4" s="23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:50" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="N5" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="R5" s="17" t="s">
+      <c r="R5" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="S5" s="17" t="s">
+      <c r="S5" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="T5" s="17" t="s">
+      <c r="T5" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="U5" s="17" t="s">
+      <c r="U5" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="V5" s="17" t="s">
+      <c r="V5" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="W5" s="17" t="s">
+      <c r="W5" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="X5" s="17" t="s">
+      <c r="X5" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="Y5" s="17" t="s">
+      <c r="Y5" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="Z5" s="17" t="s">
+      <c r="Z5" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="AA5" s="23"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="AA5" s="24"/>
+    </row>
+    <row r="6" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="19" t="n">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="20">
         <v>1</v>
       </c>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="20"/>
-      <c r="AH6" s="20"/>
-      <c r="AI6" s="20"/>
-      <c r="AJ6" s="20"/>
-      <c r="AK6" s="20"/>
-      <c r="AL6" s="20"/>
-      <c r="AM6" s="20"/>
-      <c r="AN6" s="20"/>
-      <c r="AO6" s="20"/>
-      <c r="AP6" s="20"/>
-      <c r="AQ6" s="20"/>
-      <c r="AR6" s="20"/>
-      <c r="AS6" s="20"/>
-      <c r="AT6" s="20"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="21"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21"/>
+      <c r="AM6" s="21"/>
+      <c r="AN6" s="21"/>
+      <c r="AO6" s="21"/>
+      <c r="AP6" s="21"/>
+      <c r="AQ6" s="21"/>
+      <c r="AR6" s="21"/>
+      <c r="AS6" s="21"/>
+      <c r="AT6" s="21"/>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="AA7" s="6" t="n">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="AA7" s="8">
         <v>1</v>
       </c>
     </row>
@@ -3707,147 +4292,136 @@
     <mergeCell ref="D3:Z3"/>
   </mergeCells>
   <dataValidations count="15">
-    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Y6:Y7" type="none">
+    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y6:Y7">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="T6" type="decimal">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T6">
       <formula1>$P$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6" type="whole">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="F6">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N6" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B6:B7 G6:H7 J6:K7 O6:O7 R6:S7" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7 G6:H7 J6:K7 O6:O7 R6:S7">
       <formula1>boolean_choices</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L6:L7" type="whole">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L7">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M6:M7" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="M6:M7">
       <formula1>validation_choices</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="X6:X7 Z6:Z7" type="whole">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" sqref="X6:X7 Z6:Z7">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AA7" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="AA6:AA7">
       <formula1>boolean_choices</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6:C7" type="textLength">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C7">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P6:Q7" type="whole">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showErrorMessage="1" sqref="P6:Q7">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D6:D7" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="D6:D7">
       <formula1>attribute_types</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E7" type="list">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="E6:E7">
       <formula1>attribute_groups</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V6:V7" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V6:V7">
       <formula1>metric_types</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="W6:W7" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W6:W7">
       <formula1>metric_units</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="16.6020408163265"/>
+    <col min="1" max="1" width="8.83203125" style="25"/>
+    <col min="3" max="3" width="8.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="24.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:3" ht="24.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="20" t="n">
+      <c r="B4" s="21">
         <v>1</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3855,62 +4429,50 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="16.6020408163265"/>
+    <col min="1" max="1" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:3" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:3" ht="26" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3918,96 +4480,83 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="20" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="20" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="1016" min="6" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="1017" style="0" width="8.77551020408163"/>
+    <col min="1" max="1" width="8.83203125" style="25"/>
+    <col min="3" max="5" width="8.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:5" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:5" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="18" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="9" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4016,77 +4565,65 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C4:E4" type="none">
+    <dataValidation operator="equal" allowBlank="1" showErrorMessage="1" sqref="C4:E4">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="16.6020408163265"/>
+    <col min="1" max="1" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:3" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:3" ht="52" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:3" ht="26" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4095,75 +4632,65 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:2" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="25"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="25" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>0</v>
       </c>
     </row>
@@ -4172,108 +4699,94 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4:B5" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B5">
       <formula1>boolean_choices</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="28" width="49"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" width="8.83203125" style="25"/>
+    <col min="2" max="2" width="8.83203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" s="29" customFormat="true" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:2" s="30" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
+      <c r="B4" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="30" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="25" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
+      <c r="B5" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="29" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="26" x14ac:dyDescent="0.15">
+      <c r="A6" s="25" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="s">
+      <c r="B6" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="29" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="25" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="s">
+      <c r="B7" s="30" t="s">
         <v>140</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4" type="none">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/src/Resources/fixtures/minimal_FR/init.xlsx
+++ b/src/Resources/fixtures/minimal_FR/init.xlsx
@@ -5,22 +5,27 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="attributes" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="family main" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="attribute_groups" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="options" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="channels" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="categories" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="group_types" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="association_types" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="choices" sheetId="10" state="hidden" r:id="rId11"/>
-    <sheet name="attribute_types" sheetId="11" state="hidden" r:id="rId12"/>
-    <sheet name="metric_types" sheetId="12" state="hidden" r:id="rId13"/>
-    <sheet name="metric_units" sheetId="13" state="hidden" r:id="rId14"/>
+    <sheet name="family secondary" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="attribute_groups" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="options" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="channels" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="categories" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="group_types" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="association_types" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="choices" sheetId="11" state="hidden" r:id="rId12"/>
+    <sheet name="attribute_types" sheetId="12" state="hidden" r:id="rId13"/>
+    <sheet name="metric_types" sheetId="13" state="hidden" r:id="rId14"/>
+    <sheet name="metric_units" sheetId="14" state="hidden" r:id="rId15"/>
+    <sheet name="user_groups" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="user_roles" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="users" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="currencies" sheetId="18" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="attribute_groups" vbProcedure="false">attribute_groups!$A$4:$A$100</definedName>
@@ -32,7 +37,7 @@
     <definedName function="false" hidden="false" name="validation_choices" vbProcedure="false">choices!$B$1:$B$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">attributes!$B$6:$AU$9</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'family main'!$C$5:$AW$8</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">attribute_groups!$A$4:$C$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">attribute_groups!$A$4:$C$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -59,8 +64,8 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Spécifier le nom des locales, séparées par ","
-Par exemple : "en_US, fr_FR"
+          <t xml:space="preserve">Insert the name of the locales, separated by ",".
+For example : "en_US, fr_FR"
 </t>
         </r>
       </text>
@@ -75,8 +80,8 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Inscrire les extensions permises, séparées par une ","
-Par exemple : 
+          <t xml:space="preserve">Insert the allowed extensions, separated by a comma.
+For example : 
 jpg, jpeg, png</t>
         </r>
       </text>
@@ -91,8 +96,8 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Spécifie le nombre de caractères à taper pour avoir une liste d'options, pour les attributs de type select.
-Cette option doit être utilisée si de nombreuses options sont proposées</t>
+          <t xml:space="preserve">Determines how many characters should be typed for select attributes before an option is presented.
+This should be used for attributes which have a large number of options.</t>
         </r>
       </text>
     </comment>
@@ -116,8 +121,8 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Spécifier le nom des locales, séparées par ","
-Par exemple : "en_US, fr_FR"
+          <t xml:space="preserve">Insert the name of the locales, separated by ",".
+For example : "en_US, fr_FR"
 </t>
         </r>
       </text>
@@ -132,8 +137,8 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Inscrire les extensions permises, séparées par une ","
-Par exemple : 
+          <t xml:space="preserve">Insert the allowed extensions, separated by a comma.
+For example : 
 jpg, jpeg, png</t>
         </r>
       </text>
@@ -148,8 +153,8 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Spécifie le nombre de caractères à taper pour avoir une liste d'options, pour les attributs de type select.
-Cette option doit être utilisée si de nombreuses options sont proposées</t>
+          <t xml:space="preserve">Determines how many characters should be typed for select attributes before an option is presented.
+This should be used for attributes which have a large number of options.</t>
         </r>
       </text>
     </comment>
@@ -163,7 +168,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Insérer 1 si l'attribut est requis pour cette famille et ce canal</t>
+          <t xml:space="preserve">Set to 1 if the attribute is required in this family for the concerned channel.</t>
         </r>
       </text>
     </comment>
@@ -171,7 +176,62 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="Y4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Insert the allowed extensions, separated by a comma.
+For example : 
+jpg, jpeg, png</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Determines how many characters should be typed for select attributes before an option is presented.
+This should be used for attributes which have a large number of options.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Set to 1 if the attribute is required in this family for the concerned channel.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author/>
@@ -187,8 +247,8 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Les locales doivent être séparées par des virgules
-Par exemple : "fr_FR, en_US"</t>
+          <t xml:space="preserve">Multiple locales should be separated by a comma.
+For example : "fr_FR, en_US"</t>
         </r>
       </text>
     </comment>
@@ -202,9 +262,8 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Les devises doivent être séparées par des virgules
-Par exe
-mple: "EUR,USD"</t>
+          <t xml:space="preserve">Multiple currency codes should be separated by a comma.
+For example: "EUR,USD"</t>
         </r>
       </text>
     </comment>
@@ -213,828 +272,1214 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="271">
-  <si>
-    <t>HOWTO Utilisateur final</t>
-  </si>
-  <si>
-    <t>Règles globales</t>
-  </si>
-  <si>
-    <t>Ne pas modifier les lignes de headers</t>
-  </si>
-  <si>
-    <t>Ne pas ouvrir ce fichier avec OpenOffice, les règles de validation seraient supprimées</t>
-  </si>
-  <si>
-    <t>Ne pas enregistrer ce fichier avec une extension autre que xlsx</t>
-  </si>
-  <si>
-    <t>Ne pas modifier les lignes masquées</t>
-  </si>
-  <si>
-    <t>attributes</t>
-  </si>
-  <si>
-    <t>L'onglet attributes peut être utilisé pour les informations relatives aux attributs communs à plusieurs familles, ou non affectés à des familles.</t>
-  </si>
-  <si>
-    <t>Cet onglet peut être dupliqué pour séparer la liste en plusieurs parties. Le titre de l'onglet devra commencer par "attributes"</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>Les onglets "family" contiennent les informations relatives à une famille : code, labels, attributs et règles de complétion.</t>
-  </si>
-  <si>
-    <t>Pour créer une nouvelle famille, dupliquer l'onglet existant. Le titre de l'onglet devra commencer par "family"</t>
-  </si>
-  <si>
-    <t>Si un attribut est présent dans plusieurs familles, ou est défini dans un onglet attributes, les colonnes roses et bleues (propriétés et labels de l'attribut) ne devront pas être remplies qu'une fois</t>
-  </si>
-  <si>
-    <t>Pour donner des règles de complétion pour de nouveaux canaux de diffusion, ajouter des colonnes sur la droite de l'onglet, en donnant comme titre de colonne le code du canal.</t>
-  </si>
-  <si>
-    <t>attribute_groups</t>
-  </si>
-  <si>
-    <t>Cet onglet contient les informations relatives aux groupes d'attributs</t>
-  </si>
-  <si>
-    <t>Le groupe “other” est requis, merci de ne pas le supprimer</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>Cet onglet contient les options pour les attributs de type select</t>
-  </si>
-  <si>
-    <t>Cet onglet peut être dupliqué afin d'avoir un onglet par attribut. Pour être importés, les titres des onglets devront commencer par "options"</t>
-  </si>
-  <si>
-    <t>channels</t>
-  </si>
-  <si>
-    <t>Cet onglet contient les informations relatives aux canaux de diffusion</t>
-  </si>
-  <si>
-    <t>Après avoir modifié les informations de cet onglet, vous pourrez avoir à modifier les onglets "family" afin de corriger les codes des canaux</t>
-  </si>
-  <si>
-    <t>categories</t>
-  </si>
-  <si>
-    <t>Cet onglet contient les informations relatives aux catégories</t>
-  </si>
-  <si>
-    <t>Cet onglet peut être dupliqué afin d'avoir un onglet par arbre. Pour être importés, les titres des onglets devront commencer par "categories"</t>
-  </si>
-  <si>
-    <t>association_types</t>
-  </si>
-  <si>
-    <t>Cet onglet contient les informations relatives aux types d'associations</t>
-  </si>
-  <si>
-    <t>group_types</t>
-  </si>
-  <si>
-    <t>Cet onglet contient les informations relatives aux types de groupes</t>
-  </si>
-  <si>
-    <t>HOWTO Intégrateurs</t>
-  </si>
-  <si>
-    <t>Tous les onglets contienne une ligne cachée où sont situés les codes des attributs. Si vous ajoutez des colonnes, pensez à renseigner cette ligne</t>
-  </si>
-  <si>
-    <t>Les codes des traductions sont toujours sous la forme "label-&lt;locale&gt;". Pour exemple, le label français a pour code "label-fr_FR"</t>
-  </si>
-  <si>
-    <t>Attributs partagés / non liés à une famille</t>
-  </si>
-  <si>
-    <t>Labels</t>
-  </si>
-  <si>
-    <t>Proprietés de l'attribut</t>
-  </si>
-  <si>
-    <t>Code de l'attribut</t>
-  </si>
-  <si>
-    <t>fr_FR</t>
-  </si>
-  <si>
-    <t>Type d'attribut</t>
-  </si>
-  <si>
-    <t>Groupe d'attributs</t>
-  </si>
-  <si>
-    <t>Ordre de tri</t>
-  </si>
-  <si>
-    <t>Unique*</t>
-  </si>
-  <si>
-    <t>Traduisible*</t>
-  </si>
-  <si>
-    <t>Spécifique aux locales</t>
-  </si>
-  <si>
-    <t>Scopable*</t>
-  </si>
-  <si>
-    <t>Utilisable comme filtre de grille*</t>
-  </si>
-  <si>
-    <t>Nb caractères max</t>
-  </si>
-  <si>
-    <t>Règle de validation</t>
-  </si>
-  <si>
-    <t>Regexp de validation</t>
-  </si>
-  <si>
-    <t>Texte riche</t>
-  </si>
-  <si>
-    <t>Nombre min</t>
-  </si>
-  <si>
-    <t>Nombre max</t>
-  </si>
-  <si>
-    <t>Décimales autorisées</t>
-  </si>
-  <si>
-    <t>Négatif autorisé</t>
-  </si>
-  <si>
-    <t>Date min</t>
-  </si>
-  <si>
-    <t>Date max</t>
-  </si>
-  <si>
-    <t>Famille de mesures</t>
-  </si>
-  <si>
-    <t>Unité de mesure par défaut</t>
-  </si>
-  <si>
-    <t>Taille max du fichier</t>
-  </si>
-  <si>
-    <t>Extensions autorisées</t>
-  </si>
-  <si>
-    <t>Longueur minimum de recherche</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>label-fr_FR</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>sort_order</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
-    <t>localizable</t>
-  </si>
-  <si>
-    <t>available_locales</t>
-  </si>
-  <si>
-    <t>scopable</t>
-  </si>
-  <si>
-    <t>useable_as_grid_filter</t>
-  </si>
-  <si>
-    <t>max_characters</t>
-  </si>
-  <si>
-    <t>validation_rule</t>
-  </si>
-  <si>
-    <t>validation_regexp</t>
-  </si>
-  <si>
-    <t>wysiwyg_enabled</t>
-  </si>
-  <si>
-    <t>number_min</t>
-  </si>
-  <si>
-    <t>number_max</t>
-  </si>
-  <si>
-    <t>decimals_allowed</t>
-  </si>
-  <si>
-    <t>negative_allowed</t>
-  </si>
-  <si>
-    <t>date_min</t>
-  </si>
-  <si>
-    <t>date_max</t>
-  </si>
-  <si>
-    <t>metric_family</t>
-  </si>
-  <si>
-    <t>default_metric_unit</t>
-  </si>
-  <si>
-    <t>max_file_size</t>
-  </si>
-  <si>
-    <t>allowed_extensions</t>
-  </si>
-  <si>
-    <t>minimum_input length</t>
-  </si>
-  <si>
-    <t>sku</t>
-  </si>
-  <si>
-    <t>Code article</t>
-  </si>
-  <si>
-    <t>Identifiant</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Texte</t>
-  </si>
-  <si>
-    <t>Family code</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Main</t>
-  </si>
-  <si>
-    <t>Complétion</t>
-  </si>
-  <si>
-    <t>Utiliser comme label</t>
-  </si>
-  <si>
-    <t>use_as_label</t>
-  </si>
-  <si>
-    <t>wysywig_enabled</t>
-  </si>
-  <si>
-    <t>Propriétés du groupe</t>
-  </si>
-  <si>
-    <t>Code du groupe</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Global</t>
-  </si>
-  <si>
-    <t>OTHER</t>
-  </si>
-  <si>
-    <t>Autres</t>
-  </si>
-  <si>
-    <t>Propriétés d'option</t>
-  </si>
-  <si>
-    <t>Code de l'option</t>
-  </si>
-  <si>
-    <t>attribute</t>
-  </si>
-  <si>
-    <t>Propriétés du canal</t>
-  </si>
-  <si>
-    <t>Code du canal</t>
-  </si>
-  <si>
-    <t>Label du canal</t>
-  </si>
-  <si>
-    <t>Locales du canal</t>
-  </si>
-  <si>
-    <t>Devises du canal</t>
-  </si>
-  <si>
-    <t>Arbre de categories</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>locales</t>
-  </si>
-  <si>
-    <t>currencies</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>en_US</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>Propriétés de la catégorie</t>
-  </si>
-  <si>
-    <t>Code de la catégorie</t>
-  </si>
-  <si>
-    <t>Code de la catégorie parente</t>
-  </si>
-  <si>
-    <t>parent</t>
-  </si>
-  <si>
-    <t>Main category</t>
-  </si>
-  <si>
-    <t>Propriétés des types de groupes</t>
-  </si>
-  <si>
-    <t>Code du type</t>
-  </si>
-  <si>
-    <t>Type variant</t>
-  </si>
-  <si>
-    <t>variant</t>
-  </si>
-  <si>
-    <t>VARIANT</t>
-  </si>
-  <si>
-    <t>RELATED</t>
-  </si>
-  <si>
-    <t>Propriétés des types d'associations</t>
-  </si>
-  <si>
-    <t>X_SELL</t>
-  </si>
-  <si>
-    <t>Cross sell</t>
-  </si>
-  <si>
-    <t>UPSELL</t>
-  </si>
-  <si>
-    <t>Upsell</t>
-  </si>
-  <si>
-    <t>SUBSTITUTION</t>
-  </si>
-  <si>
-    <t>Substitution</t>
-  </si>
-  <si>
-    <t>PACK</t>
-  </si>
-  <si>
-    <t>Pack</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>regexp</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>Attribute type code</t>
-  </si>
-  <si>
-    <t>Attribute type label</t>
-  </si>
-  <si>
-    <t>pim_catalog_identifier</t>
-  </si>
-  <si>
-    <t>pim_catalog_text</t>
-  </si>
-  <si>
-    <t>pim_catalog_textarea</t>
-  </si>
-  <si>
-    <t>Zone de texte</t>
-  </si>
-  <si>
-    <t>pim_catalog_multiselect</t>
-  </si>
-  <si>
-    <t>Select multiple</t>
-  </si>
-  <si>
-    <t>pim_catalog_simpleselect</t>
-  </si>
-  <si>
-    <t>Select simple</t>
-  </si>
-  <si>
-    <t>pim_catalog_price_collection</t>
-  </si>
-  <si>
-    <t>Collection de prix</t>
-  </si>
-  <si>
-    <t>pim_catalog_number</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>pim_catalog_boolean</t>
-  </si>
-  <si>
-    <t>Booléen</t>
-  </si>
-  <si>
-    <t>pim_catalog_date</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>pim_catalog_file</t>
-  </si>
-  <si>
-    <t>Fichier</t>
-  </si>
-  <si>
-    <t>pim_catalog_image</t>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>pim_catalog_metric</t>
-  </si>
-  <si>
-    <t>Mesure</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Binary</t>
-  </si>
-  <si>
-    <t>Frequency</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>Speed</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Voltage</t>
-  </si>
-  <si>
-    <t>Intensity</t>
-  </si>
-  <si>
-    <t>Resistance</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>ACRE</t>
-  </si>
-  <si>
-    <t>ARE</t>
-  </si>
-  <si>
-    <t>ARPENT</t>
-  </si>
-  <si>
-    <t>CENTIARE</t>
-  </si>
-  <si>
-    <t>HECTARE</t>
-  </si>
-  <si>
-    <t>SQUARE_CENTIMETER</t>
-  </si>
-  <si>
-    <t>SQUARE_DECIMETER</t>
-  </si>
-  <si>
-    <t>SQUARE_DEKAMETER</t>
-  </si>
-  <si>
-    <t>SQUARE_FOOT</t>
-  </si>
-  <si>
-    <t>SQUARE_FURLONG</t>
-  </si>
-  <si>
-    <t>SQUARE_HECTOMETER</t>
-  </si>
-  <si>
-    <t>SQUARE_INCH</t>
-  </si>
-  <si>
-    <t>SQUARE_KILOMETER</t>
-  </si>
-  <si>
-    <t>SQUARE_METER</t>
-  </si>
-  <si>
-    <t>SQUARE_MIL</t>
-  </si>
-  <si>
-    <t>SQUARE_MILE</t>
-  </si>
-  <si>
-    <t>SQUARE_MILLIMETER</t>
-  </si>
-  <si>
-    <t>SQUARE_YARD</t>
-  </si>
-  <si>
-    <t>BIT</t>
-  </si>
-  <si>
-    <t>BYTE</t>
-  </si>
-  <si>
-    <t>KILOBYTE</t>
-  </si>
-  <si>
-    <t>MEGABYTE</t>
-  </si>
-  <si>
-    <t>GIGABYTE</t>
-  </si>
-  <si>
-    <t>TERABYTE</t>
-  </si>
-  <si>
-    <t>GIGAHERTZ</t>
-  </si>
-  <si>
-    <t>KILOHERTZ</t>
-  </si>
-  <si>
-    <t>MEGAHERTZ</t>
-  </si>
-  <si>
-    <t>TERAHERTZ</t>
-  </si>
-  <si>
-    <t>HERTZ</t>
-  </si>
-  <si>
-    <t>CENTIMETER</t>
-  </si>
-  <si>
-    <t>CHAIN</t>
-  </si>
-  <si>
-    <t>DECIMETER</t>
-  </si>
-  <si>
-    <t>DEKAMETER</t>
-  </si>
-  <si>
-    <t>FEET</t>
-  </si>
-  <si>
-    <t>FURLONG</t>
-  </si>
-  <si>
-    <t>INCH</t>
-  </si>
-  <si>
-    <t>HECTOMETER</t>
-  </si>
-  <si>
-    <t>KILOMETER</t>
-  </si>
-  <si>
-    <t>METER</t>
-  </si>
-  <si>
-    <t>MIL</t>
-  </si>
-  <si>
-    <t>MILE</t>
-  </si>
-  <si>
-    <t>MILLIMETER</t>
-  </si>
-  <si>
-    <t>YARD</t>
-  </si>
-  <si>
-    <t>GIGAWATT</t>
-  </si>
-  <si>
-    <t>KILOWATT</t>
-  </si>
-  <si>
-    <t>MEGAWATT</t>
-  </si>
-  <si>
-    <t>TERAWATT</t>
-  </si>
-  <si>
-    <t>WATT</t>
-  </si>
-  <si>
-    <t>FOOT_PER_SECOND</t>
-  </si>
-  <si>
-    <t>FOOT_PER_HOUR</t>
-  </si>
-  <si>
-    <t>KILOMETER_PER_HOUR</t>
-  </si>
-  <si>
-    <t>METER_PER_HOUR</t>
-  </si>
-  <si>
-    <t>METER_PER_MINUTE</t>
-  </si>
-  <si>
-    <t>METER_PER_SECOND</t>
-  </si>
-  <si>
-    <t>MILE_PER_HOUR</t>
-  </si>
-  <si>
-    <t>YARD_PER_HOUR</t>
-  </si>
-  <si>
-    <t>CELSIUS</t>
-  </si>
-  <si>
-    <t>FAHRENHEIT</t>
-  </si>
-  <si>
-    <t>KELVIN</t>
-  </si>
-  <si>
-    <t>RANKINE</t>
-  </si>
-  <si>
-    <t>REAUMUR</t>
-  </si>
-  <si>
-    <t>BARREL</t>
-  </si>
-  <si>
-    <t>CENTILITER</t>
-  </si>
-  <si>
-    <t>CUBIC_CENTIMETER</t>
-  </si>
-  <si>
-    <t>CUBIC_DECIMETER</t>
-  </si>
-  <si>
-    <t>CUBIC_FOOT</t>
-  </si>
-  <si>
-    <t>CUBIC_INCH</t>
-  </si>
-  <si>
-    <t>CUBIC_METER</t>
-  </si>
-  <si>
-    <t>CUBIC_MILLIMETER</t>
-  </si>
-  <si>
-    <t>CUBIC_YARD</t>
-  </si>
-  <si>
-    <t>DECILITER</t>
-  </si>
-  <si>
-    <t>GALLON</t>
-  </si>
-  <si>
-    <t>LITER</t>
-  </si>
-  <si>
-    <t>MILLILITER</t>
-  </si>
-  <si>
-    <t>OUNCE</t>
-  </si>
-  <si>
-    <t>PINT</t>
-  </si>
-  <si>
-    <t>DENIER</t>
-  </si>
-  <si>
-    <t>GRAIN</t>
-  </si>
-  <si>
-    <t>GRAM</t>
-  </si>
-  <si>
-    <t>KILOGRAM</t>
-  </si>
-  <si>
-    <t>LIVRE</t>
-  </si>
-  <si>
-    <t>MARC</t>
-  </si>
-  <si>
-    <t>MILLIGRAM</t>
-  </si>
-  <si>
-    <t>ONCE</t>
-  </si>
-  <si>
-    <t>POUND</t>
-  </si>
-  <si>
-    <t>TON</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="400">
+  <si>
+    <t xml:space="preserve">End user HOWTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global rules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not modify the headers of the files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not open this file in Open Office, as it will break the validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not save this file with another extension than xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not modify hidden rows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attributes tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The attributes tab can be used to define the properties of attributes which are not linked to families, or which are shared by families.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This tab can be duplicated to shorten the list. All attributes tab titles should start with "attributes"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family tabs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The family tab contains all information for a family : code, labels, attributes and completion rules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To create a new family, simply duplicate the tab. All family tabs titles must start with "family"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If an attribute is present in multiple families, only fill the blue and pink columns (attribute properties and translations) once </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To add completion for other channels, simply add columns on the right of the table. The label should be the code of the channel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This tab contains all informations for attribute groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You should not delete the mandatory “other” group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This tab contains the list of options for select attributes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This tab can be duplicated to divide the contents by attribute. All options tab titles should start with "options"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This tab contains all information about channels.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After editing this tab, you might have to update your family tabs so they use the right family codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Categories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This tab contains all information about categories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This tab can be duplicated to divide its content between trees. All category tabs should start with "categories"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Association types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This tab contains all information about association types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This tab contains all information about group types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrator HOWTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All tabs contain a hidden row with the codes of the properties. If you add some columns, do not forget to update them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The codes for label translations are always of the form "label-&lt;locale&gt;". For example, the french label has the code "label-fr_FR"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common and unaffected attribute properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en_US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is unique*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is localizable*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific to locales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is scopable*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Useable as grid filter*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validation rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validation regexp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decimals allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metric family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default metric  unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max file size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allowed extensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum input length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label-en_US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sort_order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">localizable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">available_locales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scopable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">useable_as_grid_filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validation_rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validation_regexp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wysiwyg_enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimals_allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative_allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metric_family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default_metric_unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_file_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allowed_extensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum_input length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code article</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completeness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use as label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use_as_label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">second_family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel locales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel currencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">locales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent category code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group type properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARIANT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELATED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Association type properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Association type code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X_SELL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross sell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPSELL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upsell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBSTITUTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substitution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regexp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">datetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute type code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute type label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_textarea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_multiselect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_simpleselect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_price_collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voltage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intensity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARPENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTIARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HECTARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_CENTIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_DECIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_DEKAMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_FOOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_FURLONG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_HECTOMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_INCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_KILOMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_METER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_MIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_MILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_MILLIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_YARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BYTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KILOBYTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEGABYTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIGABYTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERABYTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIGAHERTZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KILOHERTZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEGAHERTZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERAHERTZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERTZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DECIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEKAMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FURLONG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HECTOMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KILOMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILLIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIGAWATT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KILOWATT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEGAWATT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERAWATT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WATT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOOT_PER_SECOND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOOT_PER_HOUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KILOMETER_PER_HOUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METER_PER_HOUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METER_PER_MINUTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METER_PER_SECOND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILE_PER_HOUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YARD_PER_HOUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELSIUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAHRENHEIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KELVIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANKINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REAUMUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARREL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTILITER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBIC_CENTIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBIC_DECIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBIC_FOOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBIC_INCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBIC_METER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBIC_MILLIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBIC_YARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DECILITER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALLON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LITER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILLILITER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUNCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DENIER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KILOGRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIVRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILLIGRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POUND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it_support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support IT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redacteur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLE_ADMINISTRATOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLE_CATALOG_MANAGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catalog manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLE_USER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilisateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catalog_locale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_locale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catalog_scope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default_tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AOK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BGL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BGM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BYB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GHC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GYD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LVR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MGF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MKN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MXP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UYP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VNN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XAU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XBB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XBD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XEU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XFO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XFU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YUN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZMK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZRN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZRZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZWD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZWL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZWR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="D\-MMM"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1166,7 +1611,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1219,10 +1664,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1251,12 +1692,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1368,15 +1809,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>135000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>901080</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>378720</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>138960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1385,8 +1826,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54000" y="0"/>
-          <a:ext cx="8590680" cy="9531720"/>
+          <a:off x="135000" y="0"/>
+          <a:ext cx="5834880" cy="9528480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1413,15 +1854,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>135000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>901080</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>378720</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>138960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1430,8 +1871,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54000" y="0"/>
-          <a:ext cx="8590680" cy="9531720"/>
+          <a:off x="135000" y="0"/>
+          <a:ext cx="5834880" cy="9528480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1463,15 +1904,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>135000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>53280</xdr:colOff>
+      <xdr:colOff>131040</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1480,8 +1921,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54000" y="0"/>
-          <a:ext cx="6476040" cy="9537120"/>
+          <a:off x="135000" y="0"/>
+          <a:ext cx="5425200" cy="10198800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1508,15 +1949,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>135000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>53280</xdr:colOff>
+      <xdr:colOff>131040</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1525,8 +1966,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54000" y="0"/>
-          <a:ext cx="6476040" cy="9537120"/>
+          <a:off x="135000" y="0"/>
+          <a:ext cx="5425200" cy="10198800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1558,15 +1999,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>135000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>901080</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>379080</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1575,8 +2016,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54000" y="0"/>
-          <a:ext cx="10543320" cy="9369720"/>
+          <a:off x="135000" y="0"/>
+          <a:ext cx="6749640" cy="9528840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1603,15 +2044,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>135000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>901080</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>379080</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1620,8 +2061,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54000" y="0"/>
-          <a:ext cx="10543320" cy="9369720"/>
+          <a:off x="135000" y="0"/>
+          <a:ext cx="6749640" cy="9528840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1655,14 +2096,14 @@
   </sheetPr>
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.26530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.05102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1698,8 +2139,8 @@
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="4" t="s">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1732,12 +2173,12 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="0" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1852,50 +2293,84 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="43.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>143</v>
+    <row r="1" s="28" customFormat="true" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>147</v>
+      <c r="A2" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4" type="none">
+      <formula1>ouinon</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -1909,137 +2384,54 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>116</v>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>150</v>
-      </c>
       <c r="B3" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>171</v>
+        <v>145</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -2052,125 +2444,126 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>116</v>
+      <c r="B2" s="16" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>172</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>173</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2189,6 +2582,147 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -2197,718 +2731,1807 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="17"/>
+      <c r="A1" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" s="3" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>184</v>
+      <c r="B2" s="16" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B89" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>270</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.23469387755102"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B102"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B81" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="B82" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B83" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B84" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="B85" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="B86" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="B87" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="B88" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="B89" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="B90" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B92" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B98" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B99" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="B100" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="B101" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="B102" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2930,41 +4553,41 @@
   <dimension ref="A1:AV8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="11.4744897959184"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="6" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="33.75"/>
-    <col collapsed="false" hidden="false" max="44" min="26" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="7" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="8" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="48" min="47" style="7" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="49" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="6" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="44" min="26" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="7" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="8" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="48" min="47" style="7" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="49" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2997,7 +4620,7 @@
       <c r="AU2" s="0"/>
       <c r="AV2" s="0"/>
     </row>
-    <row r="4" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
         <v>34</v>
@@ -3028,165 +4651,165 @@
       <c r="X4" s="11"/>
       <c r="Y4" s="11"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="R5" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="S5" s="14" t="s">
+      <c r="S5" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="T5" s="14" t="s">
+      <c r="T5" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="U5" s="14" t="s">
+      <c r="U5" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="V5" s="14" t="s">
+      <c r="V5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W5" s="14" t="s">
+      <c r="W5" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X5" s="14" t="s">
+      <c r="X5" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="Y5" s="14" t="s">
+      <c r="Y5" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="25.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
+    <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="O6" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="P6" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="Q6" s="17" t="s">
+      <c r="Q6" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="R6" s="17" t="s">
+      <c r="R6" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="S6" s="17" t="s">
+      <c r="S6" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="T6" s="17" t="s">
+      <c r="T6" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="U6" s="17" t="s">
+      <c r="U6" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="V6" s="17" t="s">
+      <c r="V6" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="W6" s="17" t="s">
+      <c r="W6" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="X6" s="17" t="s">
+      <c r="X6" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="Y6" s="17" t="s">
+      <c r="Y6" s="16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="0" t="s">
         <v>87</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -3198,58 +4821,58 @@
       <c r="E7" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="19" t="n">
+      <c r="F7" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="19" t="n">
+      <c r="G7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="K7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="20"/>
-      <c r="AL7" s="20"/>
-      <c r="AM7" s="20"/>
-      <c r="AN7" s="20"/>
-      <c r="AO7" s="20"/>
-      <c r="AP7" s="20"/>
-      <c r="AQ7" s="20"/>
-      <c r="AR7" s="20"/>
+      <c r="K7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="19"/>
+      <c r="AM7" s="19"/>
+      <c r="AN7" s="19"/>
+      <c r="AO7" s="19"/>
+      <c r="AP7" s="19"/>
+      <c r="AQ7" s="19"/>
+      <c r="AR7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="0" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -3273,24 +4896,15 @@
       <c r="J8" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="S8" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C4:Y4"/>
   </mergeCells>
-  <dataValidations count="14">
-    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="X7:X8" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
+  <dataValidations count="12">
     <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O7:P8" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B7:B8" type="textLength">
-      <formula1>0</formula1>
-      <formula2>100</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="W7:W8 Y7:Y8" type="whole">
       <formula1>0</formula1>
@@ -3317,15 +4931,15 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="S7" type="decimal">
-      <formula1>$O$6</formula1>
+      <formula1>$O$7</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C7:C8" type="list">
+      <formula1>attribute_types</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D7:D8" type="list">
       <formula1>attribute_groups</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C7:C8" type="list">
-      <formula1>attribute_types</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="U7:U8" type="list">
@@ -3356,50 +4970,47 @@
   <dimension ref="A1:AX7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="33.75"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="6" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="36" min="28" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="42" min="40" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="46" min="44" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="7" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="8" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="7" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="7" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1021" min="51" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="6" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="36" min="28" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="42" min="40" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="46" min="44" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="7" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="8" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="7" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="7" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="1021" min="51" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3442,7 +5053,7 @@
       <c r="AW2" s="0"/>
       <c r="AX2" s="0"/>
     </row>
-    <row r="3" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="10" t="s">
@@ -3473,221 +5084,221 @@
       <c r="X3" s="11"/>
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
-      <c r="AA3" s="22" t="s">
+      <c r="AA3" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="P4" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="Q4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="R4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="S4" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="T4" s="14" t="s">
+      <c r="T4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="14" t="s">
+      <c r="U4" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="V4" s="14" t="s">
+      <c r="V4" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="W4" s="14" t="s">
+      <c r="W4" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="X4" s="14" t="s">
+      <c r="X4" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y4" s="14" t="s">
+      <c r="Y4" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="Z4" s="14" t="s">
+      <c r="Z4" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AA4" s="22" t="s">
+      <c r="AA4" s="21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
+    <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="N5" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="O5" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="P5" s="17" t="s">
+      <c r="O5" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="R5" s="17" t="s">
+      <c r="R5" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="S5" s="17" t="s">
+      <c r="S5" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="T5" s="17" t="s">
+      <c r="T5" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="U5" s="17" t="s">
+      <c r="U5" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="V5" s="17" t="s">
+      <c r="V5" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="W5" s="17" t="s">
+      <c r="W5" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="X5" s="17" t="s">
+      <c r="X5" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="Y5" s="17" t="s">
+      <c r="Y5" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="Z5" s="17" t="s">
+      <c r="Z5" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="AA5" s="23"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AA5" s="22"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="19" t="n">
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="20"/>
-      <c r="AH6" s="20"/>
-      <c r="AI6" s="20"/>
-      <c r="AJ6" s="20"/>
-      <c r="AK6" s="20"/>
-      <c r="AL6" s="20"/>
-      <c r="AM6" s="20"/>
-      <c r="AN6" s="20"/>
-      <c r="AO6" s="20"/>
-      <c r="AP6" s="20"/>
-      <c r="AQ6" s="20"/>
-      <c r="AR6" s="20"/>
-      <c r="AS6" s="20"/>
-      <c r="AT6" s="20"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="19"/>
+      <c r="AO6" s="19"/>
+      <c r="AP6" s="19"/>
+      <c r="AQ6" s="19"/>
+      <c r="AR6" s="19"/>
+      <c r="AS6" s="19"/>
+      <c r="AT6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -3706,11 +5317,7 @@
   <mergeCells count="1">
     <mergeCell ref="D3:Z3"/>
   </mergeCells>
-  <dataValidations count="15">
-    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Y6:Y7" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
+  <dataValidations count="13">
     <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="T6" type="decimal">
       <formula1>$P$7</formula1>
       <formula2>0</formula2>
@@ -3743,28 +5350,24 @@
       <formula1>boolean_choices</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6:C7" type="textLength">
-      <formula1>0</formula1>
-      <formula2>100</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P6:Q7" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D6:D7" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V3:V7" type="list">
+      <formula1>metric_types</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="W3:W7" type="list">
+      <formula1>metric_units</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D3:D7" type="list">
       <formula1>attribute_types</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E7" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E3:E7" type="list">
       <formula1>attribute_groups</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V6:V7" type="list">
-      <formula1>metric_types</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="W6:W7" type="list">
-      <formula1>metric_units</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -3784,71 +5387,478 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:AX6"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="6" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="36" min="28" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="42" min="40" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="46" min="44" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="7" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="8" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="7" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="7" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="1021" min="51" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D1" s="3"/>
+      <c r="E1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+      <c r="AA1" s="0"/>
+      <c r="AU1" s="0"/>
+      <c r="AV1" s="0"/>
+      <c r="AW1" s="0"/>
+      <c r="AX1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="J2" s="0"/>
+      <c r="K2" s="0"/>
+      <c r="AA2" s="0"/>
+      <c r="AU2" s="0"/>
+      <c r="AV2" s="0"/>
+      <c r="AW2" s="0"/>
+      <c r="AX2" s="0"/>
+    </row>
+    <row r="3" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y4" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA4" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="T5" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="U5" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="V5" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="W5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z5" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA5" s="22"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="19"/>
+      <c r="AO6" s="19"/>
+      <c r="AP6" s="19"/>
+      <c r="AQ6" s="19"/>
+      <c r="AR6" s="19"/>
+      <c r="AS6" s="19"/>
+      <c r="AT6" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D3:Z3"/>
+  </mergeCells>
+  <dataValidations count="13">
+    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="T6" type="decimal">
+      <formula1>$P$7</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F6" type="whole">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N6" type="none">
+      <formula1>ouinon</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B6 G6:H6 J6:K6 O6 R6:S6" type="list">
+      <formula1>boolean_choices</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="L6" type="whole">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M6" type="list">
+      <formula1>validation_choices</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="X6 Z6" type="whole">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6" type="list">
+      <formula1>boolean_choices</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="P6:Q6" type="whole">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V3:V6" type="list">
+      <formula1>metric_types</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="W3:W6" type="list">
+      <formula1>metric_units</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D3:D6" type="list">
+      <formula1>attribute_types</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E3:E6" type="list">
+      <formula1>attribute_groups</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="A1" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="24.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
+    <row r="3" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="20" t="n">
+      <c r="B4" s="19" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="23" t="s">
+        <v>106</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>106</v>
+      <c r="C5" s="19" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3865,7 +5875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3878,39 +5888,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="A1" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3929,7 +5939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3937,72 +5947,72 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="20" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="20" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="1016" min="6" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="1017" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="19" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="1016" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1017" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+      <c r="A1" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" customFormat="false" ht="49.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
+      <c r="E2" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="9.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
+      <c r="E3" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="23" t="s">
         <v>94</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>96</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>121</v>
@@ -4033,7 +6043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4046,44 +6056,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+    <row r="2" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>94</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -4111,7 +6122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4119,49 +6130,49 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="25"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="24"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="17" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="23" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
-        <v>131</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
-        <v>132</v>
+      <c r="A5" s="23" t="s">
+        <v>130</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -4185,95 +6196,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="28" width="49"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="29" customFormat="true" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>141</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4" type="none">
-      <formula1>ouinon</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>
--- a/src/Resources/fixtures/minimal_FR/init.xlsx
+++ b/src/Resources/fixtures/minimal_FR/init.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
@@ -59,7 +59,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Spécifier le nom des locales, séparées par ","
+          <t xml:space="preserve">Spécifier le nom des locales, séparées par ","
 Par exemple : "en_US, fr_FR"
 </t>
         </r>
@@ -75,7 +75,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Inscrire les extensions permises, séparées par une ","
+          <t xml:space="preserve">Inscrire les extensions permises, séparées par une ","
 Par exemple : 
 jpg, jpeg, png</t>
         </r>
@@ -91,7 +91,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Spécifie le nombre de caractères à taper pour avoir une liste d'options, pour les attributs de type select.
+          <t xml:space="preserve">Spécifie le nombre de caractères à taper pour avoir une liste d'options, pour les attributs de type select.
 Cette option doit être utilisée si de nombreuses options sont proposées</t>
         </r>
       </text>
@@ -116,7 +116,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Spécifier le nom des locales, séparées par ","
+          <t xml:space="preserve">Spécifier le nom des locales, séparées par ","
 Par exemple : "en_US, fr_FR"
 </t>
         </r>
@@ -132,7 +132,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Inscrire les extensions permises, séparées par une ","
+          <t xml:space="preserve">Inscrire les extensions permises, séparées par une ","
 Par exemple : 
 jpg, jpeg, png</t>
         </r>
@@ -148,7 +148,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Spécifie le nombre de caractères à taper pour avoir une liste d'options, pour les attributs de type select.
+          <t xml:space="preserve">Spécifie le nombre de caractères à taper pour avoir une liste d'options, pour les attributs de type select.
 Cette option doit être utilisée si de nombreuses options sont proposées</t>
         </r>
       </text>
@@ -163,7 +163,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Insérer 1 si l'attribut est requis pour cette famille et ce canal</t>
+          <t xml:space="preserve">Insérer 1 si l'attribut est requis pour cette famille et ce canal</t>
         </r>
       </text>
     </comment>
@@ -187,7 +187,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Les locales doivent être séparées par des virgules
+          <t xml:space="preserve">Les locales doivent être séparées par des virgules
 Par exemple : "fr_FR, en_US"</t>
         </r>
       </text>
@@ -202,7 +202,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>Les devises doivent être séparées par des virgules
+          <t xml:space="preserve">Les devises doivent être séparées par des virgules
 Par exe
 mple: "EUR,USD"</t>
         </r>
@@ -215,817 +215,817 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="271">
   <si>
-    <t>HOWTO Utilisateur final</t>
-  </si>
-  <si>
-    <t>Règles globales</t>
-  </si>
-  <si>
-    <t>Ne pas modifier les lignes de headers</t>
-  </si>
-  <si>
-    <t>Ne pas ouvrir ce fichier avec OpenOffice, les règles de validation seraient supprimées</t>
-  </si>
-  <si>
-    <t>Ne pas enregistrer ce fichier avec une extension autre que xlsx</t>
-  </si>
-  <si>
-    <t>Ne pas modifier les lignes masquées</t>
-  </si>
-  <si>
-    <t>attributes</t>
-  </si>
-  <si>
-    <t>L'onglet attributes peut être utilisé pour les informations relatives aux attributs communs à plusieurs familles, ou non affectés à des familles.</t>
-  </si>
-  <si>
-    <t>Cet onglet peut être dupliqué pour séparer la liste en plusieurs parties. Le titre de l'onglet devra commencer par "attributes"</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>Les onglets "family" contiennent les informations relatives à une famille : code, labels, attributs et règles de complétion.</t>
-  </si>
-  <si>
-    <t>Pour créer une nouvelle famille, dupliquer l'onglet existant. Le titre de l'onglet devra commencer par "family"</t>
-  </si>
-  <si>
-    <t>Si un attribut est présent dans plusieurs familles, ou est défini dans un onglet attributes, les colonnes roses et bleues (propriétés et labels de l'attribut) ne devront pas être remplies qu'une fois</t>
-  </si>
-  <si>
-    <t>Pour donner des règles de complétion pour de nouveaux canaux de diffusion, ajouter des colonnes sur la droite de l'onglet, en donnant comme titre de colonne le code du canal.</t>
-  </si>
-  <si>
-    <t>attribute_groups</t>
-  </si>
-  <si>
-    <t>Cet onglet contient les informations relatives aux groupes d'attributs</t>
-  </si>
-  <si>
-    <t>Le groupe “other” est requis, merci de ne pas le supprimer</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>Cet onglet contient les options pour les attributs de type select</t>
-  </si>
-  <si>
-    <t>Cet onglet peut être dupliqué afin d'avoir un onglet par attribut. Pour être importés, les titres des onglets devront commencer par "options"</t>
-  </si>
-  <si>
-    <t>channels</t>
-  </si>
-  <si>
-    <t>Cet onglet contient les informations relatives aux canaux de diffusion</t>
-  </si>
-  <si>
-    <t>Après avoir modifié les informations de cet onglet, vous pourrez avoir à modifier les onglets "family" afin de corriger les codes des canaux</t>
-  </si>
-  <si>
-    <t>categories</t>
-  </si>
-  <si>
-    <t>Cet onglet contient les informations relatives aux catégories</t>
-  </si>
-  <si>
-    <t>Cet onglet peut être dupliqué afin d'avoir un onglet par arbre. Pour être importés, les titres des onglets devront commencer par "categories"</t>
-  </si>
-  <si>
-    <t>association_types</t>
-  </si>
-  <si>
-    <t>Cet onglet contient les informations relatives aux types d'associations</t>
-  </si>
-  <si>
-    <t>group_types</t>
-  </si>
-  <si>
-    <t>Cet onglet contient les informations relatives aux types de groupes</t>
-  </si>
-  <si>
-    <t>HOWTO Intégrateurs</t>
-  </si>
-  <si>
-    <t>Tous les onglets contienne une ligne cachée où sont situés les codes des attributs. Si vous ajoutez des colonnes, pensez à renseigner cette ligne</t>
-  </si>
-  <si>
-    <t>Les codes des traductions sont toujours sous la forme "label-&lt;locale&gt;". Pour exemple, le label français a pour code "label-fr_FR"</t>
-  </si>
-  <si>
-    <t>Attributs partagés / non liés à une famille</t>
-  </si>
-  <si>
-    <t>Labels</t>
-  </si>
-  <si>
-    <t>Proprietés de l'attribut</t>
-  </si>
-  <si>
-    <t>Code de l'attribut</t>
-  </si>
-  <si>
-    <t>fr_FR</t>
-  </si>
-  <si>
-    <t>Type d'attribut</t>
-  </si>
-  <si>
-    <t>Groupe d'attributs</t>
-  </si>
-  <si>
-    <t>Ordre de tri</t>
-  </si>
-  <si>
-    <t>Unique*</t>
-  </si>
-  <si>
-    <t>Traduisible*</t>
-  </si>
-  <si>
-    <t>Spécifique aux locales</t>
-  </si>
-  <si>
-    <t>Scopable*</t>
-  </si>
-  <si>
-    <t>Utilisable comme filtre de grille*</t>
-  </si>
-  <si>
-    <t>Nb caractères max</t>
-  </si>
-  <si>
-    <t>Règle de validation</t>
-  </si>
-  <si>
-    <t>Regexp de validation</t>
-  </si>
-  <si>
-    <t>Texte riche</t>
-  </si>
-  <si>
-    <t>Nombre min</t>
-  </si>
-  <si>
-    <t>Nombre max</t>
-  </si>
-  <si>
-    <t>Décimales autorisées</t>
-  </si>
-  <si>
-    <t>Négatif autorisé</t>
-  </si>
-  <si>
-    <t>Date min</t>
-  </si>
-  <si>
-    <t>Date max</t>
-  </si>
-  <si>
-    <t>Famille de mesures</t>
-  </si>
-  <si>
-    <t>Unité de mesure par défaut</t>
-  </si>
-  <si>
-    <t>Taille max du fichier</t>
-  </si>
-  <si>
-    <t>Extensions autorisées</t>
-  </si>
-  <si>
-    <t>Longueur minimum de recherche</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>label-fr_FR</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>sort_order</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
-    <t>localizable</t>
-  </si>
-  <si>
-    <t>available_locales</t>
-  </si>
-  <si>
-    <t>scopable</t>
-  </si>
-  <si>
-    <t>useable_as_grid_filter</t>
-  </si>
-  <si>
-    <t>max_characters</t>
-  </si>
-  <si>
-    <t>validation_rule</t>
-  </si>
-  <si>
-    <t>validation_regexp</t>
-  </si>
-  <si>
-    <t>wysiwyg_enabled</t>
-  </si>
-  <si>
-    <t>number_min</t>
-  </si>
-  <si>
-    <t>number_max</t>
-  </si>
-  <si>
-    <t>decimals_allowed</t>
-  </si>
-  <si>
-    <t>negative_allowed</t>
-  </si>
-  <si>
-    <t>date_min</t>
-  </si>
-  <si>
-    <t>date_max</t>
-  </si>
-  <si>
-    <t>metric_family</t>
-  </si>
-  <si>
-    <t>default_metric_unit</t>
-  </si>
-  <si>
-    <t>max_file_size</t>
-  </si>
-  <si>
-    <t>allowed_extensions</t>
-  </si>
-  <si>
-    <t>minimum_input length</t>
-  </si>
-  <si>
-    <t>sku</t>
-  </si>
-  <si>
-    <t>Code article</t>
-  </si>
-  <si>
-    <t>Identifiant</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Texte</t>
-  </si>
-  <si>
-    <t>Family code</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Main</t>
-  </si>
-  <si>
-    <t>Complétion</t>
-  </si>
-  <si>
-    <t>Utiliser comme label</t>
-  </si>
-  <si>
-    <t>use_as_label</t>
-  </si>
-  <si>
-    <t>wysywig_enabled</t>
-  </si>
-  <si>
-    <t>Propriétés du groupe</t>
-  </si>
-  <si>
-    <t>Code du groupe</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Global</t>
-  </si>
-  <si>
-    <t>OTHER</t>
-  </si>
-  <si>
-    <t>Autres</t>
-  </si>
-  <si>
-    <t>Propriétés d'option</t>
-  </si>
-  <si>
-    <t>Code de l'option</t>
-  </si>
-  <si>
-    <t>attribute</t>
-  </si>
-  <si>
-    <t>Propriétés du canal</t>
-  </si>
-  <si>
-    <t>Code du canal</t>
-  </si>
-  <si>
-    <t>Label du canal</t>
-  </si>
-  <si>
-    <t>Locales du canal</t>
-  </si>
-  <si>
-    <t>Devises du canal</t>
-  </si>
-  <si>
-    <t>Arbre de categories</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>locales</t>
-  </si>
-  <si>
-    <t>currencies</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>en_US</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>Propriétés de la catégorie</t>
-  </si>
-  <si>
-    <t>Code de la catégorie</t>
-  </si>
-  <si>
-    <t>Code de la catégorie parente</t>
-  </si>
-  <si>
-    <t>parent</t>
-  </si>
-  <si>
-    <t>Main category</t>
-  </si>
-  <si>
-    <t>Propriétés des types de groupes</t>
-  </si>
-  <si>
-    <t>Code du type</t>
-  </si>
-  <si>
-    <t>Type variant</t>
-  </si>
-  <si>
-    <t>variant</t>
-  </si>
-  <si>
-    <t>VARIANT</t>
-  </si>
-  <si>
-    <t>RELATED</t>
-  </si>
-  <si>
-    <t>Propriétés des types d'associations</t>
-  </si>
-  <si>
-    <t>X_SELL</t>
-  </si>
-  <si>
-    <t>Cross sell</t>
-  </si>
-  <si>
-    <t>UPSELL</t>
-  </si>
-  <si>
-    <t>Upsell</t>
-  </si>
-  <si>
-    <t>SUBSTITUTION</t>
-  </si>
-  <si>
-    <t>Substitution</t>
-  </si>
-  <si>
-    <t>PACK</t>
-  </si>
-  <si>
-    <t>Pack</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>regexp</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>Attribute type code</t>
-  </si>
-  <si>
-    <t>Attribute type label</t>
-  </si>
-  <si>
-    <t>pim_catalog_identifier</t>
-  </si>
-  <si>
-    <t>pim_catalog_text</t>
-  </si>
-  <si>
-    <t>pim_catalog_textarea</t>
-  </si>
-  <si>
-    <t>Zone de texte</t>
-  </si>
-  <si>
-    <t>pim_catalog_multiselect</t>
-  </si>
-  <si>
-    <t>Select multiple</t>
-  </si>
-  <si>
-    <t>pim_catalog_simpleselect</t>
-  </si>
-  <si>
-    <t>Select simple</t>
-  </si>
-  <si>
-    <t>pim_catalog_price_collection</t>
-  </si>
-  <si>
-    <t>Collection de prix</t>
-  </si>
-  <si>
-    <t>pim_catalog_number</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>pim_catalog_boolean</t>
-  </si>
-  <si>
-    <t>Booléen</t>
-  </si>
-  <si>
-    <t>pim_catalog_date</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>pim_catalog_file</t>
-  </si>
-  <si>
-    <t>Fichier</t>
-  </si>
-  <si>
-    <t>pim_catalog_image</t>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>pim_catalog_metric</t>
-  </si>
-  <si>
-    <t>Mesure</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Binary</t>
-  </si>
-  <si>
-    <t>Frequency</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>Speed</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Voltage</t>
-  </si>
-  <si>
-    <t>Intensity</t>
-  </si>
-  <si>
-    <t>Resistance</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>ACRE</t>
-  </si>
-  <si>
-    <t>ARE</t>
-  </si>
-  <si>
-    <t>ARPENT</t>
-  </si>
-  <si>
-    <t>CENTIARE</t>
-  </si>
-  <si>
-    <t>HECTARE</t>
-  </si>
-  <si>
-    <t>SQUARE_CENTIMETER</t>
-  </si>
-  <si>
-    <t>SQUARE_DECIMETER</t>
-  </si>
-  <si>
-    <t>SQUARE_DEKAMETER</t>
-  </si>
-  <si>
-    <t>SQUARE_FOOT</t>
-  </si>
-  <si>
-    <t>SQUARE_FURLONG</t>
-  </si>
-  <si>
-    <t>SQUARE_HECTOMETER</t>
-  </si>
-  <si>
-    <t>SQUARE_INCH</t>
-  </si>
-  <si>
-    <t>SQUARE_KILOMETER</t>
-  </si>
-  <si>
-    <t>SQUARE_METER</t>
-  </si>
-  <si>
-    <t>SQUARE_MIL</t>
-  </si>
-  <si>
-    <t>SQUARE_MILE</t>
-  </si>
-  <si>
-    <t>SQUARE_MILLIMETER</t>
-  </si>
-  <si>
-    <t>SQUARE_YARD</t>
-  </si>
-  <si>
-    <t>BIT</t>
-  </si>
-  <si>
-    <t>BYTE</t>
-  </si>
-  <si>
-    <t>KILOBYTE</t>
-  </si>
-  <si>
-    <t>MEGABYTE</t>
-  </si>
-  <si>
-    <t>GIGABYTE</t>
-  </si>
-  <si>
-    <t>TERABYTE</t>
-  </si>
-  <si>
-    <t>GIGAHERTZ</t>
-  </si>
-  <si>
-    <t>KILOHERTZ</t>
-  </si>
-  <si>
-    <t>MEGAHERTZ</t>
-  </si>
-  <si>
-    <t>TERAHERTZ</t>
-  </si>
-  <si>
-    <t>HERTZ</t>
-  </si>
-  <si>
-    <t>CENTIMETER</t>
-  </si>
-  <si>
-    <t>CHAIN</t>
-  </si>
-  <si>
-    <t>DECIMETER</t>
-  </si>
-  <si>
-    <t>DEKAMETER</t>
-  </si>
-  <si>
-    <t>FEET</t>
-  </si>
-  <si>
-    <t>FURLONG</t>
-  </si>
-  <si>
-    <t>INCH</t>
-  </si>
-  <si>
-    <t>HECTOMETER</t>
-  </si>
-  <si>
-    <t>KILOMETER</t>
-  </si>
-  <si>
-    <t>METER</t>
-  </si>
-  <si>
-    <t>MIL</t>
-  </si>
-  <si>
-    <t>MILE</t>
-  </si>
-  <si>
-    <t>MILLIMETER</t>
-  </si>
-  <si>
-    <t>YARD</t>
-  </si>
-  <si>
-    <t>GIGAWATT</t>
-  </si>
-  <si>
-    <t>KILOWATT</t>
-  </si>
-  <si>
-    <t>MEGAWATT</t>
-  </si>
-  <si>
-    <t>TERAWATT</t>
-  </si>
-  <si>
-    <t>WATT</t>
-  </si>
-  <si>
-    <t>FOOT_PER_SECOND</t>
-  </si>
-  <si>
-    <t>FOOT_PER_HOUR</t>
-  </si>
-  <si>
-    <t>KILOMETER_PER_HOUR</t>
-  </si>
-  <si>
-    <t>METER_PER_HOUR</t>
-  </si>
-  <si>
-    <t>METER_PER_MINUTE</t>
-  </si>
-  <si>
-    <t>METER_PER_SECOND</t>
-  </si>
-  <si>
-    <t>MILE_PER_HOUR</t>
-  </si>
-  <si>
-    <t>YARD_PER_HOUR</t>
-  </si>
-  <si>
-    <t>CELSIUS</t>
-  </si>
-  <si>
-    <t>FAHRENHEIT</t>
-  </si>
-  <si>
-    <t>KELVIN</t>
-  </si>
-  <si>
-    <t>RANKINE</t>
-  </si>
-  <si>
-    <t>REAUMUR</t>
-  </si>
-  <si>
-    <t>BARREL</t>
-  </si>
-  <si>
-    <t>CENTILITER</t>
-  </si>
-  <si>
-    <t>CUBIC_CENTIMETER</t>
-  </si>
-  <si>
-    <t>CUBIC_DECIMETER</t>
-  </si>
-  <si>
-    <t>CUBIC_FOOT</t>
-  </si>
-  <si>
-    <t>CUBIC_INCH</t>
-  </si>
-  <si>
-    <t>CUBIC_METER</t>
-  </si>
-  <si>
-    <t>CUBIC_MILLIMETER</t>
-  </si>
-  <si>
-    <t>CUBIC_YARD</t>
-  </si>
-  <si>
-    <t>DECILITER</t>
-  </si>
-  <si>
-    <t>GALLON</t>
-  </si>
-  <si>
-    <t>LITER</t>
-  </si>
-  <si>
-    <t>MILLILITER</t>
-  </si>
-  <si>
-    <t>OUNCE</t>
-  </si>
-  <si>
-    <t>PINT</t>
-  </si>
-  <si>
-    <t>DENIER</t>
-  </si>
-  <si>
-    <t>GRAIN</t>
-  </si>
-  <si>
-    <t>GRAM</t>
-  </si>
-  <si>
-    <t>KILOGRAM</t>
-  </si>
-  <si>
-    <t>LIVRE</t>
-  </si>
-  <si>
-    <t>MARC</t>
-  </si>
-  <si>
-    <t>MILLIGRAM</t>
-  </si>
-  <si>
-    <t>ONCE</t>
-  </si>
-  <si>
-    <t>POUND</t>
-  </si>
-  <si>
-    <t>TON</t>
+    <t xml:space="preserve">HOWTO Utilisateur final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Règles globales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ne pas modifier les lignes de headers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ne pas ouvrir ce fichier avec OpenOffice, les règles de validation seraient supprimées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ne pas enregistrer ce fichier avec une extension autre que xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ne pas modifier les lignes masquées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attributes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'onglet attributes peut être utilisé pour les informations relatives aux attributs communs à plusieurs familles, ou non affectés à des familles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cet onglet peut être dupliqué pour séparer la liste en plusieurs parties. Le titre de l'onglet devra commencer par "attributes"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les onglets "family" contiennent les informations relatives à une famille : code, labels, attributs et règles de complétion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pour créer une nouvelle famille, dupliquer l'onglet existant. Le titre de l'onglet devra commencer par "family"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si un attribut est présent dans plusieurs familles, ou est défini dans un onglet attributes, les colonnes roses et bleues (propriétés et labels de l'attribut) ne devront pas être remplies qu'une fois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pour donner des règles de complétion pour de nouveaux canaux de diffusion, ajouter des colonnes sur la droite de l'onglet, en donnant comme titre de colonne le code du canal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attribute_groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cet onglet contient les informations relatives aux groupes d'attributs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le groupe “other” est requis, merci de ne pas le supprimer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cet onglet contient les options pour les attributs de type select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cet onglet peut être dupliqué afin d'avoir un onglet par attribut. Pour être importés, les titres des onglets devront commencer par "options"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">channels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cet onglet contient les informations relatives aux canaux de diffusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Après avoir modifié les informations de cet onglet, vous pourrez avoir à modifier les onglets "family" afin de corriger les codes des canaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">categories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cet onglet contient les informations relatives aux catégories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cet onglet peut être dupliqué afin d'avoir un onglet par arbre. Pour être importés, les titres des onglets devront commencer par "categories"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">association_types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cet onglet contient les informations relatives aux types d'associations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group_types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cet onglet contient les informations relatives aux types de groupes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOWTO Intégrateurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tous les onglets contienne une ligne cachée où sont situés les codes des attributs. Si vous ajoutez des colonnes, pensez à renseigner cette ligne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les codes des traductions sont toujours sous la forme "label-&lt;locale&gt;". Pour exemple, le label français a pour code "label-fr_FR"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attributs partagés / non liés à une famille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proprietés de l'attribut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code de l'attribut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fr_FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type d'attribut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groupe d'attributs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordre de tri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traduisible*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spécifique aux locales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scopable*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilisable comme filtre de grille*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nb caractères max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Règle de validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regexp de validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texte riche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Décimales autorisées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Négatif autorisé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Famille de mesures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unité de mesure par défaut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taille max du fichier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extensions autorisées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longueur minimum de recherche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label-fr_FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sort_order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">localizable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">available_locales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scopable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">useable_as_grid_filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validation_rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validation_regexp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wysiwyg_enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimals_allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative_allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metric_family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default_metric_unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_file_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allowed_extensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum_input length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code article</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifiant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complétion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utiliser comme label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use_as_label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wysywig_enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propriétés du groupe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code du groupe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propriétés d'option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code de l'option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propriétés du canal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code du canal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Label du canal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locales du canal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devises du canal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arbre de categories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">locales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en_US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propriétés de la catégorie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code de la catégorie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code de la catégorie parente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propriétés des types de groupes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code du type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARIANT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELATED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propriétés des types d'associations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X_SELL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross sell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPSELL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upsell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBSTITUTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substitution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regexp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">datetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute type code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute type label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_textarea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zone de texte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_multiselect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select multiple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_simpleselect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select simple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_price_collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collection de prix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Booléen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fichier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pim_catalog_metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voltage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intensity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARPENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTIARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HECTARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_CENTIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_DECIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_DEKAMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_FOOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_FURLONG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_HECTOMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_INCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_KILOMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_METER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_MIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_MILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_MILLIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE_YARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BYTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KILOBYTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEGABYTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIGABYTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERABYTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIGAHERTZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KILOHERTZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEGAHERTZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERAHERTZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERTZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DECIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEKAMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FURLONG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HECTOMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KILOMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILLIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIGAWATT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KILOWATT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEGAWATT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERAWATT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WATT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOOT_PER_SECOND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOOT_PER_HOUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KILOMETER_PER_HOUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METER_PER_HOUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METER_PER_MINUTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METER_PER_SECOND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILE_PER_HOUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YARD_PER_HOUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELSIUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAHRENHEIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KELVIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANKINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REAUMUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARREL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTILITER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBIC_CENTIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBIC_DECIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBIC_FOOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBIC_INCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBIC_METER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBIC_MILLIMETER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBIC_YARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DECILITER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALLON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LITER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILLILITER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUNCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DENIER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KILOGRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIVRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILLIGRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POUND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TON</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1033,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="D\-MMM"/>
   </numFmts>
   <fonts count="9">
@@ -1374,9 +1374,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>901080</xdr:colOff>
+      <xdr:colOff>900720</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1386,7 +1386,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="54000" y="0"/>
-          <a:ext cx="8590680" cy="9531720"/>
+          <a:ext cx="8466480" cy="9531360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1419,9 +1419,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>901080</xdr:colOff>
+      <xdr:colOff>900720</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1431,7 +1431,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="54000" y="0"/>
-          <a:ext cx="8590680" cy="9531720"/>
+          <a:ext cx="8466480" cy="9531360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1469,9 +1469,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>53280</xdr:colOff>
+      <xdr:colOff>52920</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1481,7 +1481,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="54000" y="0"/>
-          <a:ext cx="6476040" cy="9537120"/>
+          <a:ext cx="6380640" cy="9536760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1514,9 +1514,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>53280</xdr:colOff>
+      <xdr:colOff>52920</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1526,7 +1526,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="54000" y="0"/>
-          <a:ext cx="6476040" cy="9537120"/>
+          <a:ext cx="6380640" cy="9536760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1564,9 +1564,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>901080</xdr:colOff>
+      <xdr:colOff>900720</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1576,7 +1576,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="54000" y="0"/>
-          <a:ext cx="10543320" cy="9369720"/>
+          <a:ext cx="10390680" cy="9369360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1609,9 +1609,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>901080</xdr:colOff>
+      <xdr:colOff>900720</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1621,7 +1621,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="54000" y="0"/>
-          <a:ext cx="10543320" cy="9369720"/>
+          <a:ext cx="10390680" cy="9369360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1655,14 +1655,14 @@
   </sheetPr>
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="1" sqref="3:3 B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.26530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.12755102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1855,12 +1855,12 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+      <selection pane="topLeft" activeCell="D26" activeCellId="1" sqref="3:3 D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1912,13 +1912,14 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="3:3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2052,13 +2053,14 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="1" sqref="3:3 B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2192,13 +2194,14 @@
   <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="3:3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2930,41 +2933,41 @@
   <dimension ref="A1:AV8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="3:3 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="11.4744897959184"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="6" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="33.75"/>
-    <col collapsed="false" hidden="false" max="44" min="26" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="7" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="8" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="48" min="47" style="7" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="49" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="6" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="44" min="26" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="7" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="8" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="48" min="47" style="7" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="49" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3356,50 +3359,49 @@
   <dimension ref="A1:AX7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="1" sqref="3:3 C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="33.75"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="6" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="36" min="28" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="42" min="40" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="46" min="44" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="7" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="8" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="7" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="7" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1021" min="51" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="6" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="36" min="28" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="42" min="40" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="46" min="44" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="7" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="8" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="7" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="7" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="1021" min="51" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3787,15 +3789,15 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="3:3 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="16.3316326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3873,14 +3875,14 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="3:3 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="16.3316326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3937,18 +3939,18 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="3:3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="20" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="20" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="1016" min="6" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="1017" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="20" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="20" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="1016" min="6" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="1017" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4041,14 +4043,14 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="3:3 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="16.3316326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4118,15 +4120,15 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="3:3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4143,7 +4145,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="17" t="s">
         <v>61</v>
       </c>
@@ -4195,14 +4197,14 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+      <selection pane="topLeft" activeCell="E24" activeCellId="1" sqref="3:3 E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="39.9591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="28" width="49"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="39.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="28" width="48.4642857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="29" customFormat="true" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
